--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F348DB-C45A-48FD-BC26-937920D187A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C180D2-9521-4AB4-9C81-09529663FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="6972" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="1020" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C180D2-9521-4AB4-9C81-09529663FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C3259E-7970-4AB6-ACC3-F1EF2E12FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1020" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="1368" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C3259E-7970-4AB6-ACC3-F1EF2E12FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF9C8E-BBDD-410B-839B-4EDAF79CB01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="1368" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>long</t>
   </si>
@@ -75,6 +75,9 @@
   <si>
     <t>parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger6</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,6 +547,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF9C8E-BBDD-410B-839B-4EDAF79CB01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E71BA-DFE4-43E3-A370-9A587CB5281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E71BA-DFE4-43E3-A370-9A587CB5281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F163CC-9DAE-44A6-B812-BA5A5E88F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,21 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>WUYUE</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FFCC3F91-D6F7-420E-A383-7306E2D805C7}">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>long</t>
   </si>
@@ -78,6 +91,10 @@
   </si>
   <si>
     <t>EventTrigger6</t>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -564,9 +581,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F163CC-9DAE-44A6-B812-BA5A5E88F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FD3A4-72A5-49A3-8B8A-FDD4D99566C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>long</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager</t>
+  </si>
+  <si>
+    <t>Village_Teenager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -598,6 +613,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>999</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FD3A4-72A5-49A3-8B8A-FDD4D99566C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB714C-106E-4D5E-8916-BA638F67EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB714C-106E-4D5E-8916-BA638F67EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA60CE8-D664-4822-A0AE-5701A16634FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA60CE8-D664-4822-A0AE-5701A16634FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78DE24-2609-4821-9B14-8A73E574BDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78DE24-2609-4821-9B14-8A73E574BDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20861C-4148-4E79-B66A-06FA48C0BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,15 +100,15 @@
     <t>Village_Teenager</t>
   </si>
   <si>
-    <t>Village_Teenager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无效条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_01_Village_Teenager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,13 +449,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E10" sqref="B9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
   </cols>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>999</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20861C-4148-4E79-B66A-06FA48C0BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA0F9B-EE07-46E1-96DC-BA7099D6CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>long</t>
   </si>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>Event_01_Village_Teenager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_02_Dangerous_Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="B9:E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -632,18 +640,35 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>999</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>9999</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA0F9B-EE07-46E1-96DC-BA7099D6CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20861C-4148-4E79-B66A-06FA48C0BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>long</t>
   </si>
@@ -109,14 +109,6 @@
   </si>
   <si>
     <t>Event_01_Village_Teenager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_02_Dangerous_Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="B9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -640,35 +632,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>999</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
         <v>9999</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20861C-4148-4E79-B66A-06FA48C0BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8813454-78C1-4F89-A32C-5EBFDF5CC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3252" yWindow="2124" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="B9:E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8813454-78C1-4F89-A32C-5EBFDF5CC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03481B3-981A-4F56-932A-F3573C3CE07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="2124" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03481B3-981A-4F56-932A-F3573C3CE07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BD9F6-ACFC-4B56-9145-2408F5F0A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>long</t>
   </si>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>Event_01_Village_Teenager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_02_Dangerous_Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
   </cols>
@@ -627,23 +635,40 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>999</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>9999</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BD9F6-ACFC-4B56-9145-2408F5F0A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ECB93-012D-4B5E-B3C6-20DB6F91DCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,18 +457,18 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="27.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -553,7 +553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -587,7 +587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -635,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>999</v>
       </c>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ECB93-012D-4B5E-B3C6-20DB6F91DCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98566144-0CB7-4CE9-86B9-112B2164695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98566144-0CB7-4CE9-86B9-112B2164695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1D09B-3B3C-4688-B0D7-6AE44CC5EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>long</t>
   </si>
@@ -117,6 +117,62 @@
   </si>
   <si>
     <t>Dangerous_Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_03_ArriveEspceialArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1900]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_04_BuildEspceialArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_05_EnterBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1,26,37]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,21 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -515,11 +572,11 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,11 +589,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -549,11 +606,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -564,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -581,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -598,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -617,11 +674,11 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -632,13 +689,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,27 +706,78 @@
         <v>21</v>
       </c>
       <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>999</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>999</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>9999</v>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1D09B-3B3C-4688-B0D7-6AE44CC5EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45834D28-0004-43F7-A7F4-70303C6674B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45834D28-0004-43F7-A7F4-70303C6674B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6AFDAC-86F0-41DD-950B-1664F5BFD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>long</t>
   </si>
@@ -173,6 +173,37 @@
   </si>
   <si>
     <t>[1001,1,26,37]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1,23,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_03</t>
+  </si>
+  <si>
+    <t>New_Tutorial_04</t>
+  </si>
+  <si>
+    <t>New_Tutorial_05</t>
+  </si>
+  <si>
+    <t>New_Tutorial_06</t>
+  </si>
+  <si>
+    <t>New_Tutorial_07</t>
+  </si>
+  <si>
+    <t>[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -765,18 +796,137 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>999</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6AFDAC-86F0-41DD-950B-1664F5BFD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10AE239-CFAC-4E93-A629-99CA96FE966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1001,1,23,]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>New_Tutorial_03</t>
   </si>
   <si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1,23]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -850,10 +850,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -867,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -884,16 +884,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,10 +901,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10AE239-CFAC-4E93-A629-99CA96FE966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0B625-C832-4953-92B9-A656FBE5C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0B625-C832-4953-92B9-A656FBE5C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF93C3-C22E-463F-84E0-A7D2940EA9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>long</t>
   </si>
@@ -204,6 +204,13 @@
   </si>
   <si>
     <t>[1001,1,23]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_06_DefensiveCollapsed</t>
+  </si>
+  <si>
+    <t>Event_06_DefensiveCollapsed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,22 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -607,7 +614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -624,7 +631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -641,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -658,7 +665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -675,7 +682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -692,7 +699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -709,7 +716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -726,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -743,7 +750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -760,7 +767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -777,7 +784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -794,7 +801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -811,7 +818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -828,7 +835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -845,7 +852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -862,7 +869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -879,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -896,7 +903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -913,20 +920,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>999</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF93C3-C22E-463F-84E0-A7D2940EA9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43852D93-1C61-4BC9-A004-1403FD51C815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>long</t>
   </si>
@@ -144,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[9999]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +203,10 @@
   </si>
   <si>
     <t>Event_06_DefensiveCollapsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +547,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -772,16 +768,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,16 +785,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,10 +802,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -823,16 +819,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,16 +836,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,16 +853,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -874,16 +870,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,16 +887,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,16 +904,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,10 +921,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -951,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43852D93-1C61-4BC9-A004-1403FD51C815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FCDC1A-CBCC-4A7A-98A4-DEFA1A1A18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>long</t>
   </si>
@@ -206,7 +206,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[4]</t>
+    <t>[25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +555,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -743,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FCDC1A-CBCC-4A7A-98A4-DEFA1A1A18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1228732-B968-4AD0-8FC7-476F34EC12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,15 +206,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1228732-B968-4AD0-8FC7-476F34EC12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41E4F0-7FC1-45A0-882A-BE285E9A1D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>long</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,22 +564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +594,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -598,10 +614,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -615,10 +634,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -632,10 +654,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -649,10 +674,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -666,10 +694,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -683,10 +714,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -700,10 +734,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -717,10 +754,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -734,10 +774,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -751,10 +794,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -768,10 +814,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -785,10 +834,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -802,10 +854,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -819,10 +874,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -836,10 +894,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -853,10 +914,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -870,10 +934,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -887,10 +954,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -904,10 +974,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -921,10 +994,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -938,10 +1014,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>999</v>
       </c>
@@ -955,6 +1034,9 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41E4F0-7FC1-45A0-882A-BE285E9A1D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE2A845-E33E-4483-895D-D92FE78DC3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1584" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>long</t>
   </si>
@@ -227,6 +227,26 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1003:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2:106:TRUE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1022,21 +1042,61 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>999</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE2A845-E33E-4483-895D-D92FE78DC3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A81DA-07D6-407B-B66D-C81A5E8344C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1584" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>long</t>
   </si>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>[[2:106:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 1005 new character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,9 +592,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1082,13 +1090,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>999</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1097,6 +1105,26 @@
         <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>999</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE2A845-E33E-4483-895D-D92FE78DC3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8301645-0F99-492C-8BCD-F01E98803A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1584" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43695" yWindow="5595" windowWidth="50400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>long</t>
   </si>
@@ -247,6 +247,34 @@
   </si>
   <si>
     <t>[[2:106:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1002:FALSE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,23 +612,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -640,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -660,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -680,7 +708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,7 +728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -720,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -740,7 +768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -760,7 +788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -780,7 +808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,7 +828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -820,7 +848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -840,7 +868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -860,7 +888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -880,7 +908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -900,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -920,7 +948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -940,7 +968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -960,7 +988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -980,7 +1008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1000,7 +1028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1020,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1040,7 +1068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1060,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1080,7 +1108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>999</v>
       </c>
@@ -1098,6 +1126,66 @@
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8301645-0F99-492C-8BCD-F01E98803A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F28E9-8BBD-461B-8875-F82C9ECFA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43695" yWindow="5595" windowWidth="50400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>long</t>
   </si>
@@ -276,6 +276,61 @@
   <si>
     <t>[[1:1002:FALSE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+  </si>
+  <si>
+    <t>[1001,1,2,3,4]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_03</t>
+  </si>
+  <si>
+    <t>[1001,1,1]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_04</t>
+  </si>
+  <si>
+    <t>[1003,1,21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_05</t>
+  </si>
+  <si>
+    <t>[1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_06</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_07</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_09</t>
+  </si>
+  <si>
+    <t>[1003,1,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_10</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
 </sst>
 </file>
@@ -298,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,16 +381,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,6 +1267,206 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F28E9-8BBD-461B-8875-F82C9ECFA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE20F1D-D1CA-4098-A229-011107971766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>long</t>
   </si>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>[720]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -693,21 +697,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -767,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -787,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -827,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -847,7 +851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -867,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -887,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -907,7 +911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -927,7 +931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -947,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -967,7 +971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -987,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>999</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -1224,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>51</v>
       </c>
@@ -1244,10 +1248,10 @@
         <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>52</v>
       </c>
@@ -1264,10 +1268,10 @@
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>31</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>32</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>33</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>34</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>35</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>37</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>39</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>40</v>
       </c>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE20F1D-D1CA-4098-A229-011107971766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B453D-4399-456B-9A65-0A6D368A0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>long</t>
   </si>
@@ -323,17 +323,14 @@
     <t>Tutorial2.0_09</t>
   </si>
   <si>
-    <t>[1003,1,17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial2.0_10</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>[720]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1,17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +695,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1248,7 +1245,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,7 +1265,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,10 +1453,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3">
         <v>4</v>
@@ -1468,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B453D-4399-456B-9A65-0A6D368A0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DFBF3D-F747-481A-B67E-0CDA812EF502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>long</t>
   </si>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>[1002,1,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +699,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DFBF3D-F747-481A-B67E-0CDA812EF502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC9CDD-6802-4A32-BA80-89509F5BCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>long</t>
   </si>
@@ -326,15 +326,23 @@
     <t>Tutorial2.0_10</t>
   </si>
   <si>
-    <t>[720]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1002,1,17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[300]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,20 +707,20 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -772,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -792,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -812,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -832,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -852,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -872,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -892,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -912,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -932,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -952,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -972,7 +980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1032,7 +1040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>999</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -1229,10 +1237,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>51</v>
       </c>
@@ -1249,10 +1257,10 @@
         <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>52</v>
       </c>
@@ -1269,10 +1277,10 @@
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>31</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>32</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>33</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>34</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>35</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>37</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>38</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>39</v>
       </c>
@@ -1449,10 +1457,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>40</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC9CDD-6802-4A32-BA80-89509F5BCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC655011-FAC9-4A0D-9C72-8673957D874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,21 +706,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -820,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -840,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -860,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -920,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -940,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -980,7 +980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>999</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>51</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>52</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>31</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>32</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>33</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>34</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>35</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>37</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>39</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>40</v>
       </c>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC655011-FAC9-4A0D-9C72-8673957D874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBF564-50F8-4CDB-9602-CE419669BB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBF564-50F8-4CDB-9602-CE419669BB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C2AC6-20D3-423C-B3F8-C18182CCE63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>long</t>
   </si>
@@ -343,6 +343,56 @@
   </si>
   <si>
     <t>[300]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03</t>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 2 Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 1 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 2 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 3! Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 3 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 4! Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +432,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +484,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,17 +784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
@@ -1201,283 +1281,503 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>999</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
+      <c r="A25" s="3">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
+      <c r="A26" s="3">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
+      <c r="A27" s="3">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>82</v>
+      <c r="A28" s="3">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>72</v>
+      <c r="A35" s="1">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>38</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>41</v>
+      <c r="A36" s="1">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>78</v>
+      <c r="A37" s="1">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>40</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>79</v>
+      <c r="A38" s="4">
+        <v>921</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>922</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>923</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>931</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>932</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>933</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>934</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>941</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>942</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>943</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>944</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>999</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C2AC6-20D3-423C-B3F8-C18182CCE63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699626E2-8DCD-4216-A71E-119AE2BA62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>long</t>
   </si>
@@ -49,350 +49,404 @@
     <t>int</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descrption</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrigger6</t>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager</t>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_01_Village_Teenager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_02_Dangerous_Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_03_ArriveEspceialArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1900]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_04_BuildEspceialArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_05_EnterBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1,26,37]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Tutorial_03</t>
+  </si>
+  <si>
+    <t>New_Tutorial_04</t>
+  </si>
+  <si>
+    <t>New_Tutorial_05</t>
+  </si>
+  <si>
+    <t>New_Tutorial_06</t>
+  </si>
+  <si>
+    <t>New_Tutorial_07</t>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1,23]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_06_DefensiveCollapsed</t>
+  </si>
+  <si>
+    <t>Event_06_DefensiveCollapsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1003:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2:106:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1_Event3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1002:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+  </si>
+  <si>
+    <t>[1001,1,2,3,4]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_03</t>
+  </si>
+  <si>
+    <t>[1001,1,1]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_04</t>
+  </si>
+  <si>
+    <t>[1003,1,21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_05</t>
+  </si>
+  <si>
+    <t>[1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_06</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_07</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_09</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_10</t>
+  </si>
+  <si>
+    <t>[1002,1,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[300]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 1 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 2 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 3 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Echo+敌人将于1分钟后出场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Echo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 2 coming!（新敌人介绍：喷火兵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Spartan+新敌人：迫击炮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关开场介绍事件（关卡目标+敌人将于1分钟后出场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming3</t>
+  </si>
+  <si>
+    <t>Test_Level_03_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[240]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descrption</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrigger6</t>
-  </si>
-  <si>
-    <t>tutorial01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager</t>
-  </si>
-  <si>
-    <t>Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_01_Village_Teenager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_02_Dangerous_Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_03_ArriveEspceialArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1900]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_04_BuildEspceialArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_05_EnterBattle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,1,26,37]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New_Tutorial_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New_Tutorial_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New_Tutorial_03</t>
-  </si>
-  <si>
-    <t>New_Tutorial_04</t>
-  </si>
-  <si>
-    <t>New_Tutorial_05</t>
-  </si>
-  <si>
-    <t>New_Tutorial_06</t>
-  </si>
-  <si>
-    <t>New_Tutorial_07</t>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,1,23]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_06_DefensiveCollapsed</t>
-  </si>
-  <si>
-    <t>Event_06_DefensiveCollapsed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1:1003:FALSE]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 1003 character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove 1003 character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[2:106:TRUE]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1_Event1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1_Event2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1_Event3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1:1002:FALSE]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_02</t>
-  </si>
-  <si>
-    <t>[1001,1,2,3,4]</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_03</t>
-  </si>
-  <si>
-    <t>[1001,1,1]</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_04</t>
-  </si>
-  <si>
-    <t>[1003,1,21]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_05</t>
-  </si>
-  <si>
-    <t>[1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_06</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_07</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_08</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_09</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_10</t>
-  </si>
-  <si>
-    <t>[1002,1,17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[120]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[210]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[300]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Level_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Level_03</t>
-  </si>
-  <si>
-    <t>Test_Level_04</t>
-  </si>
-  <si>
-    <t>Test_Level_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is level 2 Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 1 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 2 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is level 3! Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 3 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is level 4! Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,22 +540,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -814,30 +880,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,19 +911,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,19 +931,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,19 +951,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,19 +971,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,19 +991,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,19 +1011,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,19 +1031,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,19 +1071,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,19 +1091,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,19 +1111,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,19 +1131,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,19 +1151,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,19 +1191,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,19 +1211,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,19 +1231,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,19 +1251,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,19 +1271,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,19 +1291,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,19 +1311,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,19 +1331,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,19 +1351,19 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,19 +1371,19 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,19 +1391,19 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,19 +1411,19 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1431,19 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,19 +1451,19 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3">
         <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,19 +1471,19 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,19 +1491,19 @@
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,19 +1511,19 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,19 +1531,19 @@
         <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,19 +1551,19 @@
         <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,19 +1571,19 @@
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,259 +1591,339 @@
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>921</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>922</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>923</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>921</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>924</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>925</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>931</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>932</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>933</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>934</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>922</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>935</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>941</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>942</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>943</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>944</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>923</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>931</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>945</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>932</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>933</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>934</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>941</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>942</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>943</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>944</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>999</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>28</v>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699626E2-8DCD-4216-A71E-119AE2BA62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C29BD-FB56-49D9-8E4D-8F0B569FCFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C29BD-FB56-49D9-8E4D-8F0B569FCFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A86698-5584-423F-AE24-A1197394CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,28 @@
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FFCC3F91-D6F7-420E-A383-7306E2D805C7}">
       <text/>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{909B96A5-D331-4B8D-82CA-CF90EC6DDC61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=判断指定ID人物是否死亡
+2=指定选项是否被触发</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
   <si>
     <t>long</t>
   </si>
@@ -447,6 +463,113 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2:526:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1002:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1004:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_Event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_Event3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2:613:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_Event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4_Event3</t>
+  </si>
+  <si>
+    <t>Day4_Event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1006:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1005:FALSE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1:1003:FALSE],[2:814:TRUE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +591,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -850,11 +981,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1547,382 +1676,542 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>50</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>52</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>921</v>
+        <v>601</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>85</v>
+        <v>109</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>922</v>
+        <v>602</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
+        <v>603</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>701</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>702</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>801</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>802</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>803</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>921</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>922</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>923</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>924</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>925</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>931</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+    <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>932</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>933</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>934</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>935</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>941</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="13">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="13" t="s">
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="57" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>942</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="13">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="13" t="s">
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>943</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="13">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="13" t="s">
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>944</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="13">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>945</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="13">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>999</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A86698-5584-423F-AE24-A1197394CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD949B-8D89-4670-B4D6-CED1F3F27D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>long</t>
   </si>
@@ -351,14 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[210]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[300]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wave 1 coming!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,6 +558,26 @@
   </si>
   <si>
     <t>[[1:1003:FALSE],[2:814:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2:607:TRUE]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_Event4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,9 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1017,7 +1027,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1692,7 +1702,7 @@
         <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1722,7 @@
         <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,7 +1742,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,19 +1750,19 @@
         <v>601</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,19 +1770,19 @@
         <v>602</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,150 +1790,150 @@
         <v>603</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>701</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>63</v>
+      <c r="A41" s="5">
+        <v>604</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <v>701</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>702</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>801</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="B43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>119</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
+        <v>802</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>803</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>921</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>25</v>
+      <c r="B46" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D47" s="11">
         <v>0</v>
@@ -1935,95 +1945,95 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
+        <v>922</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>923</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>924</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>925</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>924</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>925</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>931</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" s="12">
         <v>0</v>
@@ -2035,15 +2045,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
@@ -2052,18 +2062,18 @@
         <v>49</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D54" s="12">
         <v>0</v>
@@ -2072,58 +2082,58 @@
         <v>49</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
+        <v>934</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>935</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="12">
-        <v>0</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>941</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="13">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>25</v>
+      <c r="B56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="13">
         <v>0</v>
@@ -2135,15 +2145,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D58" s="13">
         <v>0</v>
@@ -2152,66 +2162,86 @@
         <v>49</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
+        <v>944</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>945</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="13">
-        <v>0</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="B61" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>999</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD949B-8D89-4670-B4D6-CED1F3F27D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFD3DE2-9592-4723-AB87-E0E31BDCE452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFD3DE2-9592-4723-AB87-E0E31BDCE452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBE07A-5485-4E2C-BE4E-87062B03B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[12]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,14 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[2:607:TRUE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,6 +566,18 @@
   </si>
   <si>
     <t>Day2_Event4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>115</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,16 +1773,16 @@
         <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,16 +1793,16 @@
         <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,19 +1810,19 @@
         <v>604</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,16 +1833,16 @@
         <v>110</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,16 +1853,16 @@
         <v>111</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,16 +1873,16 @@
         <v>112</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,16 +1893,16 @@
         <v>113</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,16 +1913,16 @@
         <v>114</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBE07A-5485-4E2C-BE4E-87062B03B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4043E1-61B3-4EC5-A05B-BE5A44DC964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>long</t>
   </si>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[1:1002:FALSE]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +566,6 @@
   </si>
   <si>
     <t>[90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[180]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,7 +1714,7 @@
         <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,7 +1734,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,16 +1765,16 @@
         <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,16 +1785,16 @@
         <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,19 +1802,19 @@
         <v>604</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,16 +1825,16 @@
         <v>110</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,16 +1845,16 @@
         <v>111</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,13 +1865,13 @@
         <v>112</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>24</v>
@@ -1893,16 +1885,16 @@
         <v>113</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,16 +1905,16 @@
         <v>114</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4043E1-61B3-4EC5-A05B-BE5A44DC964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3FBE3-86F1-4635-AC4D-751F0847F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,7 @@
         <v>118</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventTrigger_Data.xlsx
+++ b/GameDesign/ExcelData/EventTrigger_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3FBE3-86F1-4635-AC4D-751F0847F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71FE66-5F9E-48EC-AACF-7E04BE980DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
